--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/8_Antalya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/8_Antalya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A9E5BD-EE5A-4A99-9824-1205109913E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13A31DF-4A96-4754-9943-21D161CEC810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{3D33805C-CC5B-4647-BE82-98C0E7E53C97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{F2A3D33B-BD8F-4E7C-8728-377B58892F48}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -948,15 +948,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4E06DCC4-FA96-46EF-9D6E-2B18D7C48284}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7FE1C66D-FEB0-4614-833E-BDD78398C5A5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6DF46C41-AB37-47F9-8F6C-8D6FC3D49FF5}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4495DB9F-84E0-4DF2-B9E3-0080A16F1D80}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{A832E14D-9C7E-4CA3-8F78-8786907B010D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{1DF253F8-E5B4-4EB9-B2F4-D51AAF33D1A1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0438AD5A-CDF6-47F4-BEAC-D882DD17CCC2}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{29D878EC-21A4-427A-B7D0-C0DF4C364576}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{33053B0C-1FC6-4368-91C6-15253FAC2353}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FC1BFB50-A4EC-48FA-B0CE-930D3372599D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{41C22B93-B821-4200-A6F7-F37C7DC1EF69}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7D8E294B-4322-4731-A5E5-CEE05979C9AD}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{93BA9401-2156-4414-84C5-AF97040E9266}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{9D6255E3-64E8-474E-956C-FEE6783A91FE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{74CB12CC-88FC-48A0-A909-5F54EFF2B082}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B847F2B3-3A5F-4F05-BC2E-085E61448EB2}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{57FEB866-19FA-4647-A433-5C03F698D3C9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{717A0CD4-CCFD-4BB2-9F5D-D4F25C69DE69}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5A7BE-FF68-4883-B14F-CDF0102DE2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147BFF47-8BE5-4596-93E6-3241B3CCE4CD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2637,17 +2637,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF586BAB-C3C9-4ED9-BC1D-8B63CC269A74}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C91A584A-CB34-4AA2-912C-68903A2FD903}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41BD0B4C-9583-468F-9541-5A8DFBA1ABC4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6844A1B-8611-4057-AD4B-F51DAD9AF838}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EE9DA49-6FF7-4C44-AFBB-4F53CC5E7EB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF426892-9D31-43D2-8349-BDCC8FD698BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{580E13F2-0BC6-432A-A745-DCA3039A495D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{533D8F7E-6467-4531-A469-AA2CEBDFFFBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{519EAE59-C9AF-4C62-993C-9C5290620530}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7633E5D3-7C99-4F63-80EF-E841681D7255}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5D5A3A6-E778-41F0-9980-8F07375764DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85C079B3-8477-49CA-AD99-67CFA304BA7E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0AB83471-3E2A-420B-BC77-B2FDD7F7CE5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DBCD50A0-D471-466C-AEFA-EC1BF690A0ED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F13273D1-9B19-4A91-9E85-A14C102FACDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B215CBA5-03C9-44DB-9E11-61C9584A831F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0209A1B6-D0B6-4C95-B89C-5F2CAB8A4ACF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BE5E031-6294-481F-887F-174FE5A24895}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A84CE1E-7863-4C3B-8610-AD21FE7F5F35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEA97673-F3C3-46DB-930A-4D3699B6F9F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3575F163-1A45-4951-A92B-7A7A1C9BCB0D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA241272-A2E2-4F77-9928-72B13A6229E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2660,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1081F24-73AE-47A1-9C3E-D342FC37F649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66854894-3F45-4981-A203-F78A1750151F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3962,17 +3962,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D1D3B91-8E1D-4D11-9015-993161FDB86D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2135E96A-02C8-4300-88F3-2A000E1FD45D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB0643E4-F062-48AA-9DCA-697232CC1BE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{075CA707-3339-40E3-B256-17DE63A1F5F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6486DC0A-16A3-4DC7-8B52-683C73535083}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4025AD6-5E12-4572-83B7-3FC7C9A3EDD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{286A9427-7DC3-4919-9F89-601343BF09D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ACAC657-DB7A-4325-95E5-163530E51736}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9884D8C-C2C8-4242-88A6-393F2481BF44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FDABF09-11D0-453F-9FAF-63ED7F090A0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75B85733-DBC2-4B8F-B0E2-842A52CD7F25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C9749A9-8B93-4F13-A218-1AA2ED5EB55F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{489D6444-2E7E-4BD9-8652-854527B77EB3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{373E15DB-D5DC-4114-A076-822FAAA30EB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1627D766-53F5-4DBB-B858-A2B2193FE185}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA71F3B8-19D8-42F7-8693-7B8DEA34C157}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF9B4E83-A282-4775-BBED-8F224DB1C01A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D17750B-5B14-4994-8125-5E4845A7B713}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{801E9854-147C-4B3D-B065-012628F091E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B7CA223-2B19-477B-9DDF-CAD5CDAD5987}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{163E8950-C607-436E-AF29-AE2E163F3286}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBE15A30-42FE-400F-8CEF-8B8CC6DF7566}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3985,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C83013-1324-4C88-9913-EA3E8AC342DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318CB244-CF09-4C83-9AAD-D4E41FF55DE8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5287,17 +5287,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4736069A-90D4-41CC-9855-6DB97AB4469D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{19E9258E-67C6-4506-8FC0-3BEC874CBF46}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{617D2CE2-2A0F-406A-B261-C632611B054F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9C8792A-FFCB-4258-A5A1-817725E1AB71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B43973CF-5D90-4CAC-B59A-DBA659B4A478}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADB409C8-3209-4CBA-AC18-DAEF08AA428F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAB1094A-26B5-413D-8163-00DEEF9C8EF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{124031DD-4196-4BD7-A6A1-9AC2F1E55E2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{357268F4-55CE-4540-A3AE-C3E44DA688A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64F4A165-5F82-4678-B0E9-26204D53FFE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCDEF56D-AACE-4473-A0F8-C0F25FAC68E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{723F7093-ABDB-4599-9888-F49E79123A43}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C20D4A91-7B61-4C92-82F5-17D4331644CF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5305B6B-A1F6-435B-8D38-BF7F5AF9A6CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EC2AD87-7124-41E4-BA87-301E0F80FCB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AD467B6-4D9B-4645-9826-1D2EEA483AB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FC505A1-9EA4-45F4-B032-6FE62B4B1582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{772401FE-9D27-4470-8922-B50BE09E26EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C5609AC-A3B3-4214-9953-59C37E54358B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6B31642-CFE1-4FE6-9317-86085A316DEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25B2D364-6BD7-464B-95F5-BF2831A33F4C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B3E1B6A-6B82-4C15-8C41-EFAEC0EC101B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5310,7 +5310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE18AF-69BF-4374-9630-D607327786D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31761094-6795-4993-88CE-07537674FABC}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6612,18 +6612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27CE6EA5-777E-4DD1-A642-CD2FAADA068A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0B10719-7D9D-4111-8B9B-4D9E61BEA94D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DEE82015-3D38-496A-8AF4-7AAC06CF9B65}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A9F49245-8234-4D39-BA10-F549B4C32119}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36278204-91C8-4B43-B5AC-C219F94513E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1031A921-5BDC-4653-8178-DD0F487841FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A034049F-8D2E-4BC7-A471-64A7DB2BC9F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D80BFCDE-B5DB-4246-BD2A-D2B47EB0C3AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{259C5AD0-3654-4269-AD88-B581DF19E40E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDA2DB3C-6852-4A24-8CEE-8BB6DDC8D919}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AA2D294-5CFD-43DD-9E05-BE7290907AA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C985362B-6EEC-4809-A54A-1717F3358015}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE1DAA8A-E1B4-4A10-B322-3897D6148DF6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A20D6B51-BC10-403C-818C-F51D570D8CEF}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2ECA6C5B-79E3-4CB2-BF89-080996AC26A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{071C48BF-A3C1-4138-864A-D0324E7C27F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC32CE57-0E48-443F-A972-4788085E8A24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B469FC6E-3589-48DF-AAA9-3517E8FE8172}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A973971F-8389-4A77-BDBE-DA33C033BED6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FF75B66-B05D-4A2B-868C-5430027D79AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B504D0C-19CC-4570-B071-0A56411E96A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE0939BD-70AE-4AE5-9224-B380137A9036}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34F8A99C-A287-48AF-B671-23A368BF1723}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70CCEB2E-0DE5-4A40-9D49-1C9EB65898CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6636,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89554DC-85F7-4A9C-B008-C2CED85571C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C20B37-9C1D-4527-901C-2DE78E373FF9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7947,17 +7947,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F7060B6-A9A5-4900-9650-CE01D402C03A}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{48AC97BA-6DED-4D0A-AE70-0F65281F34F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B94E0BA2-7F49-4066-AE6C-E401B9DDCA3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F37DA098-6F39-4986-A7C6-15AFC5CC5292}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7EF1AEFE-74DA-448F-BB22-C1543F7055ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27AD31DB-CAA3-4B96-9780-BC1E9AC142FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BE8D0FD-6C32-428B-9F1B-19B58DEC3120}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0278EDC6-D347-4B99-A716-185B3789EF75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4EDADEF-8F52-4713-BE27-576A9FA635EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9186D6A2-D27D-4AD7-ACEA-53D41912674C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADED6053-FDFA-4FBB-97EC-EA5D8C440A4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64EDE2B7-8AC5-438E-BC00-0912C34C6F3A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{397EC1FA-382B-4E52-9C9B-FB412368873D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{182BEB63-629B-4473-BB72-E3E8F5504CFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51D624B3-2C6B-45FD-AA6E-5279A48177CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14990853-40A2-40BB-B1DF-B51EDABD8896}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDA067D5-E7A5-4BD6-86A5-913F97680F15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87597E57-9822-42F6-B020-8EEB6A0FE08B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B5E6A38-1CB8-4916-80D9-FFEBAF468747}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8DCC683-1ADE-4992-9AEB-C755614A7776}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BFB3EE4-4DFE-4B69-851C-A11E0554857E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4ECE08A-746C-4602-91B8-2FC3E7ED654F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7970,7 +7970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCE4B9-BC5F-4AC4-B77E-6E1BDFD6C508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9559916-C219-499B-B62B-BCD4EB7695D1}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9280,17 +9280,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{489AF739-5772-4CEB-AA67-5E5ACBC26BFA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A63BD62A-B0AC-4EF8-8159-E63B3508634A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{035CC539-72AE-43A1-8585-FEFA0B02A276}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AEFEAB8-8DD2-4030-B069-D98D3FD006C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8336201A-6981-4A17-9FB9-B2D2F9EF6068}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BFF97F9-2980-4353-9340-9E247B7F8E75}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3F3BD01-9EC1-4125-89D7-B7C0B45E0CEA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24D6870E-1E2B-4875-A50E-C646015DE9A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{85245C73-8306-4445-98AE-F2F618F414DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83C11237-3C55-4DEA-A5F1-977305A28B7D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE00CCB7-8B4F-475A-A38A-5C48D6AADFD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA1E336A-6328-4FF6-976B-32D67B1F77A7}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{142D9C4A-8EB8-44D2-944D-35FDCCDB1D83}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{404D8B0F-D06F-457A-B2CA-DC3B8D371028}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3D32476-E0A8-414A-A7A6-6A8481769606}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEF30743-884D-4839-8F59-332EDCEEF7DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA9E1DDE-AE05-4735-A976-290638F4C11F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27BF5964-45B5-4D2B-B599-811E851EA9D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B03E8346-CC41-48E1-AADE-74DB0BA5F604}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{541DAEA1-6602-480F-980A-7908073BA655}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{274681B4-C09D-4DFE-A550-8682348A5B0F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E067902-492E-4FC1-9FFF-9FC5151A8E0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9303,7 +9303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589949AF-03F7-4A01-AFE4-B75567222654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E15692-E226-4B45-9960-4E00BC92E963}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10615,17 +10615,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BBDDED5-3072-46A1-8BE9-B26D755481A5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2E38F7C1-3CDF-4EB7-99FD-3CF027AB336C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5500E274-8A92-48F1-BDEB-8EDFC6AF3D05}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7655A128-539A-40F7-8DAB-21055F1C4359}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C25DE613-D9B7-4000-947C-6E3527A9EA42}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62665489-7967-403C-8A62-8B57A035214A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E1A1CDB-0EDD-4223-A83D-E042A3E28F1D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44BB25BB-6236-4219-A63C-C4062DE3915B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98A17946-AA70-4350-9C43-4ED55A327652}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E65F681-CE32-443B-BC69-A6142C4269DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A09EE52-F834-44E0-9D0C-8E84BD7BE565}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C768D738-388A-4660-9753-D76FA0300EA2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2415F495-40AD-483C-86BF-07B47FBC5C27}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37243611-499A-4C78-9C96-8D66775263AA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D61E106F-1B85-4031-9786-000FC6820E00}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0944C300-36EF-4241-A695-8222306E3400}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E390AB86-7371-46BD-BB0D-8614260AB002}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D81AD30B-31C2-499E-B48E-B2AEEB439C02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A8A7A7C-FDE5-4BBD-A7BD-0AB2B357CD93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD36B3AA-D20A-4796-A6AD-CE887E974B69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6E467D1-AF76-4CA1-93D8-9DAB2F989280}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E33C8B0A-402A-467D-80D2-7AAC9A962835}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10638,7 +10638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9F1593-F7F0-4C22-BF96-895B92E3A792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA69DA9-997B-4B59-A123-9466C6649DBB}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11950,17 +11950,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2978F46-667D-4EF8-A714-132EE5D85855}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E3A56273-375B-4AA7-BE24-06F6682C59B7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{927FCC5D-5AD4-49A6-B64E-DC41E9661D40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FB1010F-D68C-4659-9904-A4F867F08819}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B744EA9-E289-41E5-ACE9-7A2B3D63FC9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8380EE73-95E6-4116-A7C6-2821A70FA0B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAB65FD4-8F04-414E-B0A8-38759D2DBDCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE904159-B9AB-4951-A1AC-E6E4E1D9D2B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5ABD4E19-C116-415C-B207-64FA8ACE6C0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC7B52EB-B4EB-4622-BE16-DFB969DE8404}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7E2AF91-2B18-4DFC-8455-FA8C479296BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A2B3555-D0F1-42EC-9AF5-EE0C7FB5C699}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C202A3E3-3DAA-42C2-BBCD-AA24125CBF78}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3BD106C-DBA7-49CC-BAD0-0016492C57FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D89D7CC0-8F40-48A2-807C-87754FBE2F88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1610929E-B620-4443-9120-8C2ED4E17DF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5BBC305-E509-4D1B-9FFB-FE5045A87800}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A315E27-65CA-4226-A61A-194170D7F075}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCB4C982-4AA5-46B6-B505-CD3F58921D68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3779C0E-10BE-454D-8ADC-355FA00F741C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55289FCF-B1F4-475A-81FE-10DC7A8E65BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F27A5082-5979-435D-AA88-607A73D441E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11973,7 +11973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B000E72-3341-4C2F-A24C-2F08F94551FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A378E2-8494-4C85-AED4-2C4420DD33CB}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13275,17 +13275,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EB07931-9B50-4F2D-885C-CFB0274B9A00}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{97F9A508-EE6F-4728-823B-CCBC77EF94CA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74203472-BC3C-4863-BC07-CD33448014B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F91F37BA-369F-4988-8D74-0E77F1AA3F93}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5688DDBF-40DD-44BC-8158-C128852B1B93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17387F81-8255-4810-96F4-A3C813C70788}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{155761FB-6878-4B69-9EE5-14978DA191AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55597639-8A3C-445E-98B5-FA770332D500}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2556C86-F527-4E45-83CF-480F14D03A21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC090227-6103-4EAF-8EAE-150178492B53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67885BCB-9546-41A2-B42C-F7E2B3805BC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E34C1D1-318C-4AD2-AA94-E9F262E0BF4C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EA4A5EFB-FEE9-426E-89B3-812613E454D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB079BFD-9EFE-42A6-951D-F7CF91AC3CF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC23C438-C831-4F92-95C6-80E9AAE7CC47}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00F7CB10-E980-4621-AF73-A18F04832A77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{630890CB-E60F-4A24-A2D4-6E4AC7481F1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D4D60C1-1B75-4B80-8A25-C31778A2F6BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCAC206F-680B-48D8-9B06-2DE9C42C3754}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA914A41-E01A-4846-B283-42A75CF250E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56E4A0A4-196A-4C8A-9BEE-9AA394242240}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE219FB6-D3F8-4296-8D0A-C8A9EC8D8974}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13298,7 +13298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC92134-6EFE-4E90-87B6-EB295B7B7C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA08D9-214B-4A60-A9F5-BA796BF2FD38}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14602,17 +14602,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{507A4C7F-487C-400E-AD33-DF1671508346}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{191BAE3C-EA4B-4249-AFDC-D53A98BBE9E9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4026F572-D63F-4CDB-B897-AAEDB0B69775}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7CF56A1-6401-44EF-AF06-C5F9B844A273}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32097A89-E7D0-44E3-B53C-C331E2C6D25E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F253E310-E432-4463-A0F3-4E00261EC7A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61196B3E-E103-4A5D-AF66-5767AB4C0AB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F595990B-8A16-487F-8BE2-211C9D8EFF99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F94E519E-74D8-4F84-BC63-DFA37ACC4199}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99AFA9FF-5AC4-44CA-AEC0-20F9239CAA19}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{756C778D-0301-4B91-BB19-616262F438B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00948979-446B-4519-A508-BAAA85A2C4F1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E66614C8-EDB8-4831-8A74-A5A694D1313B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36B9440B-3066-4611-968D-DDA96EC8E22E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A61E0D92-633E-40DD-B279-A10F7594D9F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15432528-5861-4F36-876C-10D57779C441}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19C50C8C-3141-4986-883D-06B9C01B6EEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F661D848-B1A2-4C83-BB87-D99AFB63574F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9A16F67-94E5-49F1-B27D-173930880437}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12DDBD6D-CCC5-4CB5-8065-7ECC08A2BE4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B90663F-EE49-40C3-922A-EC634F8FCF75}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B64A7B02-A24B-4677-BB01-4249ECAFFC3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14625,7 +14625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367A9C94-B4EE-4C48-B0C5-72A44F38BCE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E3201E-1F84-4882-90DD-5F183FD36F95}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15927,17 +15927,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9461FB2B-30C0-4D04-B8EB-88D0E7A0E17D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C24CA640-68AA-4234-96AC-0A18B593E27A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{669BAE3E-360E-471F-82B5-2199FD405A1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C48E27E1-F717-4DD3-9AA8-DECB0EA0A1E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA789853-D826-4507-B7A5-D8D7F84A6B25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9987865F-E9FE-4537-A9E2-7533560C95DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B782F138-531E-4C62-ACBA-CF3B2CA1D397}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F10EC28-BCDF-4B7A-B101-A74578A0AAC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7A08637-CBD5-4C7D-AADA-1B2BF6B515A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F90B43E-9D02-4E3B-9D0B-39D84963A304}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3820DC95-9328-4A58-AD6E-D48B3B277EB3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EF11940-FD32-49B5-B998-D6C69377D410}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{932C00B0-94B1-41E3-9234-CD76CE019113}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7FADE438-2F6B-4020-90F9-46DF318EA04B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1B44C5D-60C1-4C75-8874-36AD6F1436A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E2C29FB2-5C59-461E-8E5D-A19512EFE470}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E71EFC8B-EE75-4B43-9803-77ABB67691B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6062A1C0-F628-4218-839A-9309DF604F30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79B34D63-8203-4D71-985A-B56EE0D84D1F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E257D4A0-9843-4940-B447-DAF5586AE2DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF1E0C3D-D12A-4B94-A0BC-7993D6181246}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59BAA9D6-AC2F-47EC-9D0C-1D0D93639508}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15950,7 +15950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343E476-97EA-45EE-9C19-2580FFB01791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681E22A1-15BF-4233-97E6-31B77BC1D97B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -17252,17 +17252,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16173565-769A-4F61-91C7-9D7A4F5FF692}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A475DA72-DA96-4848-8045-3CCE08F56CEE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B05B8EFC-4FFB-4EA8-A241-153E97688A5F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C2CA3F4-2EED-4CC8-97AD-79B64FB1E269}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6D03949-9721-43A3-BC10-67F028031023}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41DAEC02-AF7C-4630-9CCE-ECE65C294207}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEFA3CB8-5F72-4E93-8DC9-BDCF92A71C86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57C1CF37-D39E-4497-9A67-D2FE2CD0370C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B96B4EF-6CE0-4295-BC82-6DBEDA180A45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8E16955-1C03-4FD8-8CBB-A662EBF8E927}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A3AC526-BA32-4636-8AA9-ADED8A554B24}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7189ADA3-BDD0-4377-89BF-38E1F1B3D71E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B35210FC-7CE0-4B27-9FB7-6DDDFA5A9CDD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F144C10B-4B06-46D8-88B7-F39C0A9BC15F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A959988-22C6-49B8-9133-CA1376DE02BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1F85166-518B-4F06-BE87-AA3D471B8B7C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48EF012B-1A54-45EA-93C0-604E04F77678}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E766B76-C3AA-401B-9B26-AFD31723B5F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{248215E5-1A87-436C-B645-E27EC18C1FDC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E62FE2B-8500-414E-882A-4F4687FBCB5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6075DA21-B485-4CB5-911E-A0130AD39C96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{843AF965-F0B2-4BD9-AED4-42262B15AF3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
